--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp2-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp2-Acvr2a.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.672264666666667</v>
+        <v>4.499283333333334</v>
       </c>
       <c r="H2">
-        <v>8.016794000000001</v>
+        <v>13.49785</v>
       </c>
       <c r="I2">
-        <v>0.2139333398392942</v>
+        <v>0.583046232715136</v>
       </c>
       <c r="J2">
-        <v>0.2639485859587926</v>
+        <v>0.6111950921276581</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.10301133333333</v>
+        <v>9.24193</v>
       </c>
       <c r="N2">
-        <v>39.309034</v>
+        <v>27.72579</v>
       </c>
       <c r="O2">
-        <v>0.2036753411238415</v>
+        <v>0.1468938537243544</v>
       </c>
       <c r="P2">
-        <v>0.2126567538160977</v>
+        <v>0.1569651396557324</v>
       </c>
       <c r="Q2">
-        <v>35.01471421299956</v>
+        <v>41.58206161683334</v>
       </c>
       <c r="R2">
-        <v>315.132427916996</v>
+        <v>374.2385545515</v>
       </c>
       <c r="S2">
-        <v>0.04357294596953096</v>
+        <v>0.0856459080229931</v>
       </c>
       <c r="T2">
-        <v>0.05613044946434607</v>
+        <v>0.09593632299271608</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.672264666666667</v>
+        <v>4.499283333333334</v>
       </c>
       <c r="H3">
-        <v>8.016794000000001</v>
+        <v>13.49785</v>
       </c>
       <c r="I3">
-        <v>0.2139333398392942</v>
+        <v>0.583046232715136</v>
       </c>
       <c r="J3">
-        <v>0.2639485859587926</v>
+        <v>0.6111950921276581</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>88.626007</v>
       </c>
       <c r="O3">
-        <v>0.4592056932299319</v>
+        <v>0.469548954544906</v>
       </c>
       <c r="P3">
-        <v>0.479455154057023</v>
+        <v>0.5017420086455576</v>
       </c>
       <c r="Q3">
-        <v>78.94404901795089</v>
+        <v>132.9178387316611</v>
       </c>
       <c r="R3">
-        <v>710.4964411615581</v>
+        <v>1196.26054858495</v>
       </c>
       <c r="S3">
-        <v>0.09823940762589771</v>
+        <v>0.2737687490227381</v>
       </c>
       <c r="T3">
-        <v>0.1265515099440063</v>
+        <v>0.3066622531984378</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.672264666666667</v>
+        <v>4.499283333333334</v>
       </c>
       <c r="H4">
-        <v>8.016794000000001</v>
+        <v>13.49785</v>
       </c>
       <c r="I4">
-        <v>0.2139333398392942</v>
+        <v>0.583046232715136</v>
       </c>
       <c r="J4">
-        <v>0.2639485859587926</v>
+        <v>0.6111950921276581</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.915846333333334</v>
+        <v>7.349831333333333</v>
       </c>
       <c r="N4">
-        <v>17.747539</v>
+        <v>22.049494</v>
       </c>
       <c r="O4">
-        <v>0.09195687840951981</v>
+        <v>0.1168203014713749</v>
       </c>
       <c r="P4">
-        <v>0.09601187431786275</v>
+        <v>0.1248296948454213</v>
       </c>
       <c r="Q4">
-        <v>15.80870712999622</v>
+        <v>33.06897362087778</v>
       </c>
       <c r="R4">
-        <v>142.278364169966</v>
+        <v>297.6207625879</v>
       </c>
       <c r="S4">
-        <v>0.01967264211934446</v>
+        <v>0.06811163667753158</v>
       </c>
       <c r="T4">
-        <v>0.02534219846145319</v>
+        <v>0.07629529684131471</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.672264666666667</v>
+        <v>4.499283333333334</v>
       </c>
       <c r="H5">
-        <v>8.016794000000001</v>
+        <v>13.49785</v>
       </c>
       <c r="I5">
-        <v>0.2139333398392942</v>
+        <v>0.583046232715136</v>
       </c>
       <c r="J5">
-        <v>0.2639485859587926</v>
+        <v>0.6111950921276581</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.1511595</v>
+        <v>12.1104985</v>
       </c>
       <c r="N5">
-        <v>16.302319</v>
+        <v>24.220997</v>
       </c>
       <c r="O5">
-        <v>0.1267029501450487</v>
+        <v>0.1924876941491673</v>
       </c>
       <c r="P5">
-        <v>0.08819342236226138</v>
+        <v>0.1371233128688515</v>
       </c>
       <c r="Q5">
-        <v>21.78205552421434</v>
+        <v>54.48856405940833</v>
       </c>
       <c r="R5">
-        <v>130.692333145286</v>
+        <v>326.9313843564499</v>
       </c>
       <c r="S5">
-        <v>0.02710598529202185</v>
+        <v>0.1122292249176953</v>
       </c>
       <c r="T5">
-        <v>0.02327852912338545</v>
+        <v>0.08380909584172738</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.672264666666667</v>
+        <v>4.499283333333334</v>
       </c>
       <c r="H6">
-        <v>8.016794000000001</v>
+        <v>13.49785</v>
       </c>
       <c r="I6">
-        <v>0.2139333398392942</v>
+        <v>0.583046232715136</v>
       </c>
       <c r="J6">
-        <v>0.2639485859587926</v>
+        <v>0.6111950921276581</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.620811666666666</v>
+        <v>4.671440333333334</v>
       </c>
       <c r="N6">
-        <v>22.862435</v>
+        <v>14.014321</v>
       </c>
       <c r="O6">
-        <v>0.1184591370916582</v>
+        <v>0.07424919611019735</v>
       </c>
       <c r="P6">
-        <v>0.123682795446755</v>
+        <v>0.079339843984437</v>
       </c>
       <c r="Q6">
-        <v>20.36482574815444</v>
+        <v>21.01813363442778</v>
       </c>
       <c r="R6">
-        <v>183.28343173339</v>
+        <v>189.16320270985</v>
       </c>
       <c r="S6">
-        <v>0.02534235883249925</v>
+        <v>0.0432907140741779</v>
       </c>
       <c r="T6">
-        <v>0.03264589896560157</v>
+        <v>0.04849212325346199</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>5.05677</v>
       </c>
       <c r="I7">
-        <v>0.1349431823867681</v>
+        <v>0.2184296534786591</v>
       </c>
       <c r="J7">
-        <v>0.1664914042968852</v>
+        <v>0.228975207608499</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.10301133333333</v>
+        <v>9.24193</v>
       </c>
       <c r="N7">
-        <v>39.309034</v>
+        <v>27.72579</v>
       </c>
       <c r="O7">
-        <v>0.2036753411238415</v>
+        <v>0.1468938537243544</v>
       </c>
       <c r="P7">
-        <v>0.2126567538160977</v>
+        <v>0.1569651396557324</v>
       </c>
       <c r="Q7">
-        <v>22.08630487335333</v>
+        <v>15.5781047887</v>
       </c>
       <c r="R7">
-        <v>198.77674386018</v>
+        <v>140.2029430983</v>
       </c>
       <c r="S7">
-        <v>0.02748459870496174</v>
+        <v>0.03208597356715557</v>
       </c>
       <c r="T7">
-        <v>0.03540552157605912</v>
+        <v>0.03594112543996836</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>5.05677</v>
       </c>
       <c r="I8">
-        <v>0.1349431823867681</v>
+        <v>0.2184296534786591</v>
       </c>
       <c r="J8">
-        <v>0.1664914042968852</v>
+        <v>0.228975207608499</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>88.626007</v>
       </c>
       <c r="O8">
-        <v>0.4592056932299319</v>
+        <v>0.469548954544906</v>
       </c>
       <c r="P8">
-        <v>0.479455154057023</v>
+        <v>0.5017420086455576</v>
       </c>
       <c r="Q8">
         <v>49.79570371304334</v>
@@ -948,10 +948,10 @@
         <v>448.16133341739</v>
       </c>
       <c r="S8">
-        <v>0.06196667761456896</v>
+        <v>0.1025634154325105</v>
       </c>
       <c r="T8">
-        <v>0.07982516189633321</v>
+        <v>0.1148864805955219</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>5.05677</v>
       </c>
       <c r="I9">
-        <v>0.1349431823867681</v>
+        <v>0.2184296534786591</v>
       </c>
       <c r="J9">
-        <v>0.1664914042968852</v>
+        <v>0.228975207608499</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.915846333333334</v>
+        <v>7.349831333333333</v>
       </c>
       <c r="N9">
-        <v>17.747539</v>
+        <v>22.049494</v>
       </c>
       <c r="O9">
-        <v>0.09195687840951981</v>
+        <v>0.1168203014713749</v>
       </c>
       <c r="P9">
-        <v>0.09601187431786275</v>
+        <v>0.1248296948454213</v>
       </c>
       <c r="Q9">
-        <v>9.971691421003335</v>
+        <v>12.38880219715333</v>
       </c>
       <c r="R9">
-        <v>89.74522278903001</v>
+        <v>111.49921977438</v>
       </c>
       <c r="S9">
-        <v>0.01240895381493369</v>
+        <v>0.0255170179696649</v>
       </c>
       <c r="T9">
-        <v>0.01598515178435702</v>
+        <v>0.02858290529293592</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>5.05677</v>
       </c>
       <c r="I10">
-        <v>0.1349431823867681</v>
+        <v>0.2184296534786591</v>
       </c>
       <c r="J10">
-        <v>0.1664914042968852</v>
+        <v>0.228975207608499</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.1511595</v>
+        <v>12.1104985</v>
       </c>
       <c r="N10">
-        <v>16.302319</v>
+        <v>24.220997</v>
       </c>
       <c r="O10">
-        <v>0.1267029501450487</v>
+        <v>0.1924876941491673</v>
       </c>
       <c r="P10">
-        <v>0.08819342236226138</v>
+        <v>0.1371233128688515</v>
       </c>
       <c r="Q10">
-        <v>13.739512941605</v>
+        <v>20.413335166615</v>
       </c>
       <c r="R10">
-        <v>82.43707764963001</v>
+        <v>122.48001099969</v>
       </c>
       <c r="S10">
-        <v>0.01709769931036488</v>
+        <v>0.04204502033190872</v>
       </c>
       <c r="T10">
-        <v>0.01468344673884122</v>
+        <v>0.03139783903211044</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>5.05677</v>
       </c>
       <c r="I11">
-        <v>0.1349431823867681</v>
+        <v>0.2184296534786591</v>
       </c>
       <c r="J11">
-        <v>0.1664914042968852</v>
+        <v>0.228975207608499</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.620811666666666</v>
+        <v>4.671440333333334</v>
       </c>
       <c r="N11">
-        <v>22.862435</v>
+        <v>14.014321</v>
       </c>
       <c r="O11">
-        <v>0.1184591370916582</v>
+        <v>0.07424919611019735</v>
       </c>
       <c r="P11">
-        <v>0.123682795446755</v>
+        <v>0.079339843984437</v>
       </c>
       <c r="Q11">
-        <v>12.84556393721667</v>
+        <v>7.874133111463335</v>
       </c>
       <c r="R11">
-        <v>115.61007543495</v>
+        <v>70.86719800317</v>
       </c>
       <c r="S11">
-        <v>0.01598525294193879</v>
+        <v>0.01621822617741941</v>
       </c>
       <c r="T11">
-        <v>0.02059212230129464</v>
+        <v>0.01816685724796238</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.5508483333333334</v>
+        <v>0.269395</v>
       </c>
       <c r="H12">
-        <v>1.652545</v>
+        <v>0.808185</v>
       </c>
       <c r="I12">
-        <v>0.04409923356952</v>
+        <v>0.03490994636826474</v>
       </c>
       <c r="J12">
-        <v>0.05440914609796297</v>
+        <v>0.03659536189327867</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.10301133333333</v>
+        <v>9.24193</v>
       </c>
       <c r="N12">
-        <v>39.309034</v>
+        <v>27.72579</v>
       </c>
       <c r="O12">
-        <v>0.2036753411238415</v>
+        <v>0.1468938537243544</v>
       </c>
       <c r="P12">
-        <v>0.2126567538160977</v>
+        <v>0.1569651396557324</v>
       </c>
       <c r="Q12">
-        <v>7.217771954614445</v>
+        <v>2.48972973235</v>
       </c>
       <c r="R12">
-        <v>64.95994759153</v>
+        <v>22.40756759115</v>
       </c>
       <c r="S12">
-        <v>0.008981926440571946</v>
+        <v>0.005128056555344938</v>
       </c>
       <c r="T12">
-        <v>0.01157047238709861</v>
+        <v>0.005744196090330553</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.5508483333333334</v>
+        <v>0.269395</v>
       </c>
       <c r="H13">
-        <v>1.652545</v>
+        <v>0.808185</v>
       </c>
       <c r="I13">
-        <v>0.04409923356952</v>
+        <v>0.03490994636826474</v>
       </c>
       <c r="J13">
-        <v>0.05440914609796297</v>
+        <v>0.03659536189327867</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>88.626007</v>
       </c>
       <c r="O13">
-        <v>0.4592056932299319</v>
+        <v>0.469548954544906</v>
       </c>
       <c r="P13">
-        <v>0.479455154057023</v>
+        <v>0.5017420086455576</v>
       </c>
       <c r="Q13">
-        <v>16.27316274864611</v>
+        <v>7.958467718588333</v>
       </c>
       <c r="R13">
-        <v>146.458464737815</v>
+        <v>71.626209467295</v>
       </c>
       <c r="S13">
-        <v>0.02025061912220011</v>
+        <v>0.01639192882043745</v>
       </c>
       <c r="T13">
-        <v>0.02608674552450991</v>
+        <v>0.01836143038344474</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.5508483333333334</v>
+        <v>0.269395</v>
       </c>
       <c r="H14">
-        <v>1.652545</v>
+        <v>0.808185</v>
       </c>
       <c r="I14">
-        <v>0.04409923356952</v>
+        <v>0.03490994636826474</v>
       </c>
       <c r="J14">
-        <v>0.05440914609796297</v>
+        <v>0.03659536189327867</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.915846333333334</v>
+        <v>7.349831333333333</v>
       </c>
       <c r="N14">
-        <v>17.747539</v>
+        <v>22.049494</v>
       </c>
       <c r="O14">
-        <v>0.09195687840951981</v>
+        <v>0.1168203014713749</v>
       </c>
       <c r="P14">
-        <v>0.09601187431786275</v>
+        <v>0.1248296948454213</v>
       </c>
       <c r="Q14">
-        <v>3.258734092972778</v>
+        <v>1.980007812043333</v>
       </c>
       <c r="R14">
-        <v>29.328606836755</v>
+        <v>17.82007030839</v>
       </c>
       <c r="S14">
-        <v>0.004055227859305365</v>
+        <v>0.004078190459090214</v>
       </c>
       <c r="T14">
-        <v>0.005223924096899853</v>
+        <v>0.004568187857895735</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.5508483333333334</v>
+        <v>0.269395</v>
       </c>
       <c r="H15">
-        <v>1.652545</v>
+        <v>0.808185</v>
       </c>
       <c r="I15">
-        <v>0.04409923356952</v>
+        <v>0.03490994636826474</v>
       </c>
       <c r="J15">
-        <v>0.05440914609796297</v>
+        <v>0.03659536189327867</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.1511595</v>
+        <v>12.1104985</v>
       </c>
       <c r="N15">
-        <v>16.302319</v>
+        <v>24.220997</v>
       </c>
       <c r="O15">
-        <v>0.1267029501450487</v>
+        <v>0.1924876941491673</v>
       </c>
       <c r="P15">
-        <v>0.08819342236226138</v>
+        <v>0.1371233128688515</v>
       </c>
       <c r="Q15">
-        <v>4.490052625309167</v>
+        <v>3.262507743407499</v>
       </c>
       <c r="R15">
-        <v>26.940315751855</v>
+        <v>19.575046460445</v>
       </c>
       <c r="S15">
-        <v>0.005587502992393749</v>
+        <v>0.006719735079298375</v>
       </c>
       <c r="T15">
-        <v>0.004798528802187634</v>
+        <v>0.005018077258440897</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.5508483333333334</v>
+        <v>0.269395</v>
       </c>
       <c r="H16">
-        <v>1.652545</v>
+        <v>0.808185</v>
       </c>
       <c r="I16">
-        <v>0.04409923356952</v>
+        <v>0.03490994636826474</v>
       </c>
       <c r="J16">
-        <v>0.05440914609796297</v>
+        <v>0.03659536189327867</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.620811666666666</v>
+        <v>4.671440333333334</v>
       </c>
       <c r="N16">
-        <v>22.862435</v>
+        <v>14.014321</v>
       </c>
       <c r="O16">
-        <v>0.1184591370916582</v>
+        <v>0.07424919611019735</v>
       </c>
       <c r="P16">
-        <v>0.123682795446755</v>
+        <v>0.079339843984437</v>
       </c>
       <c r="Q16">
-        <v>4.197911405230555</v>
+        <v>1.258462668598334</v>
       </c>
       <c r="R16">
-        <v>37.781202647075</v>
+        <v>11.326164017385</v>
       </c>
       <c r="S16">
-        <v>0.005223957155048823</v>
+        <v>0.00259203545409376</v>
       </c>
       <c r="T16">
-        <v>0.006729475287266961</v>
+        <v>0.00290347030316674</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.100768</v>
+        <v>1.0662095</v>
       </c>
       <c r="H17">
-        <v>14.201536</v>
+        <v>2.132419</v>
       </c>
       <c r="I17">
-        <v>0.5684657783388168</v>
+        <v>0.138166322546203</v>
       </c>
       <c r="J17">
-        <v>0.4675778553924284</v>
+        <v>0.0965578982697073</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.10301133333333</v>
+        <v>9.24193</v>
       </c>
       <c r="N17">
-        <v>39.309034</v>
+        <v>27.72579</v>
       </c>
       <c r="O17">
-        <v>0.2036753411238415</v>
+        <v>0.1468938537243544</v>
       </c>
       <c r="P17">
-        <v>0.2126567538160977</v>
+        <v>0.1569651396557324</v>
       </c>
       <c r="Q17">
-        <v>93.04144357937066</v>
+        <v>9.853833564335</v>
       </c>
       <c r="R17">
-        <v>558.248661476224</v>
+        <v>59.12300138601</v>
       </c>
       <c r="S17">
-        <v>0.1157824613203886</v>
+        <v>0.02029578357373392</v>
       </c>
       <c r="T17">
-        <v>0.0994335888840466</v>
+        <v>0.01515622398676861</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.100768</v>
+        <v>1.0662095</v>
       </c>
       <c r="H18">
-        <v>14.201536</v>
+        <v>2.132419</v>
       </c>
       <c r="I18">
-        <v>0.5684657783388168</v>
+        <v>0.138166322546203</v>
       </c>
       <c r="J18">
-        <v>0.4675778553924284</v>
+        <v>0.0965578982697073</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>88.626007</v>
       </c>
       <c r="O18">
-        <v>0.4592056932299319</v>
+        <v>0.469548954544906</v>
       </c>
       <c r="P18">
-        <v>0.479455154057023</v>
+        <v>0.5017420086455576</v>
       </c>
       <c r="Q18">
-        <v>209.7709048244587</v>
+        <v>31.49796353682217</v>
       </c>
       <c r="R18">
-        <v>1258.625428946752</v>
+        <v>188.987781220933</v>
       </c>
       <c r="S18">
-        <v>0.2610427218195692</v>
+        <v>0.06487585230488391</v>
       </c>
       <c r="T18">
-        <v>0.2241826126908292</v>
+        <v>0.04844715382843635</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.100768</v>
+        <v>1.0662095</v>
       </c>
       <c r="H19">
-        <v>14.201536</v>
+        <v>2.132419</v>
       </c>
       <c r="I19">
-        <v>0.5684657783388168</v>
+        <v>0.138166322546203</v>
       </c>
       <c r="J19">
-        <v>0.4675778553924284</v>
+        <v>0.0965578982697073</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.915846333333334</v>
+        <v>7.349831333333333</v>
       </c>
       <c r="N19">
-        <v>17.747539</v>
+        <v>22.049494</v>
       </c>
       <c r="O19">
-        <v>0.09195687840951981</v>
+        <v>0.1168203014713749</v>
       </c>
       <c r="P19">
-        <v>0.09601187431786275</v>
+        <v>0.1248296948454213</v>
       </c>
       <c r="Q19">
-        <v>42.00705233665067</v>
+        <v>7.836459990997667</v>
       </c>
       <c r="R19">
-        <v>252.042314019904</v>
+        <v>47.018759945986</v>
       </c>
       <c r="S19">
-        <v>0.05227433845867562</v>
+        <v>0.01614063145303865</v>
       </c>
       <c r="T19">
-        <v>0.04489302628575364</v>
+        <v>0.0120532929759228</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.100768</v>
+        <v>1.0662095</v>
       </c>
       <c r="H20">
-        <v>14.201536</v>
+        <v>2.132419</v>
       </c>
       <c r="I20">
-        <v>0.5684657783388168</v>
+        <v>0.138166322546203</v>
       </c>
       <c r="J20">
-        <v>0.4675778553924284</v>
+        <v>0.0965578982697073</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.1511595</v>
+        <v>12.1104985</v>
       </c>
       <c r="N20">
-        <v>16.302319</v>
+        <v>24.220997</v>
       </c>
       <c r="O20">
-        <v>0.1267029501450487</v>
+        <v>0.1924876941491673</v>
       </c>
       <c r="P20">
-        <v>0.08819342236226138</v>
+        <v>0.1371233128688515</v>
       </c>
       <c r="Q20">
-        <v>57.879492540496</v>
+        <v>12.91232855043575</v>
       </c>
       <c r="R20">
-        <v>231.517970161984</v>
+        <v>51.649314201743</v>
       </c>
       <c r="S20">
-        <v>0.0720262911720294</v>
+        <v>0.02659531683598872</v>
       </c>
       <c r="T20">
-        <v>0.04123729128786481</v>
+        <v>0.01324033889439581</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.100768</v>
+        <v>1.0662095</v>
       </c>
       <c r="H21">
-        <v>14.201536</v>
+        <v>2.132419</v>
       </c>
       <c r="I21">
-        <v>0.5684657783388168</v>
+        <v>0.138166322546203</v>
       </c>
       <c r="J21">
-        <v>0.4675778553924284</v>
+        <v>0.0965578982697073</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>7.620811666666666</v>
+        <v>4.671440333333334</v>
       </c>
       <c r="N21">
-        <v>22.862435</v>
+        <v>14.014321</v>
       </c>
       <c r="O21">
-        <v>0.1184591370916582</v>
+        <v>0.07424919611019735</v>
       </c>
       <c r="P21">
-        <v>0.123682795446755</v>
+        <v>0.079339843984437</v>
       </c>
       <c r="Q21">
-        <v>54.11361561669333</v>
+        <v>4.980734062083167</v>
       </c>
       <c r="R21">
-        <v>324.68169370016</v>
+        <v>29.884404372499</v>
       </c>
       <c r="S21">
-        <v>0.06733996556815407</v>
+        <v>0.01025873837855781</v>
       </c>
       <c r="T21">
-        <v>0.0578313362439341</v>
+        <v>0.007660888584183716</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.481638</v>
+        <v>0.1963773333333333</v>
       </c>
       <c r="H22">
-        <v>1.444914</v>
+        <v>0.589132</v>
       </c>
       <c r="I22">
-        <v>0.03855846586560088</v>
+        <v>0.02544784489173709</v>
       </c>
       <c r="J22">
-        <v>0.04757300825393079</v>
+        <v>0.02667644010085692</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>13.10301133333333</v>
+        <v>9.24193</v>
       </c>
       <c r="N22">
-        <v>39.309034</v>
+        <v>27.72579</v>
       </c>
       <c r="O22">
-        <v>0.2036753411238415</v>
+        <v>0.1468938537243544</v>
       </c>
       <c r="P22">
-        <v>0.2126567538160977</v>
+        <v>0.1569651396557324</v>
       </c>
       <c r="Q22">
-        <v>6.310908172564</v>
+        <v>1.814905568253333</v>
       </c>
       <c r="R22">
-        <v>56.798173553076</v>
+        <v>16.33415011428</v>
       </c>
       <c r="S22">
-        <v>0.007853408688388257</v>
+        <v>0.003738132005126888</v>
       </c>
       <c r="T22">
-        <v>0.01011672150454735</v>
+        <v>0.004187271145948785</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.481638</v>
+        <v>0.1963773333333333</v>
       </c>
       <c r="H23">
-        <v>1.444914</v>
+        <v>0.589132</v>
       </c>
       <c r="I23">
-        <v>0.03855846586560088</v>
+        <v>0.02544784489173709</v>
       </c>
       <c r="J23">
-        <v>0.04757300825393079</v>
+        <v>0.02667644010085692</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>88.626007</v>
       </c>
       <c r="O23">
-        <v>0.4592056932299319</v>
+        <v>0.469548954544906</v>
       </c>
       <c r="P23">
-        <v>0.479455154057023</v>
+        <v>0.5017420086455576</v>
       </c>
       <c r="Q23">
-        <v>14.228550919822</v>
+        <v>5.80137963954711</v>
       </c>
       <c r="R23">
-        <v>128.056958278398</v>
+        <v>52.212416755924</v>
       </c>
       <c r="S23">
-        <v>0.01770626704769592</v>
+        <v>0.01194900896433608</v>
       </c>
       <c r="T23">
-        <v>0.02280912400134442</v>
+        <v>0.01338469063971685</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.481638</v>
+        <v>0.1963773333333333</v>
       </c>
       <c r="H24">
-        <v>1.444914</v>
+        <v>0.589132</v>
       </c>
       <c r="I24">
-        <v>0.03855846586560088</v>
+        <v>0.02544784489173709</v>
       </c>
       <c r="J24">
-        <v>0.04757300825393079</v>
+        <v>0.02667644010085692</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.915846333333334</v>
+        <v>7.349831333333333</v>
       </c>
       <c r="N24">
-        <v>17.747539</v>
+        <v>22.049494</v>
       </c>
       <c r="O24">
-        <v>0.09195687840951981</v>
+        <v>0.1168203014713749</v>
       </c>
       <c r="P24">
-        <v>0.09601187431786275</v>
+        <v>0.1248296948454213</v>
       </c>
       <c r="Q24">
-        <v>2.849296396294</v>
+        <v>1.443340277689778</v>
       </c>
       <c r="R24">
-        <v>25.643667566646</v>
+        <v>12.990062499208</v>
       </c>
       <c r="S24">
-        <v>0.003545716157260681</v>
+        <v>0.002972824912049513</v>
       </c>
       <c r="T24">
-        <v>0.00456757368939905</v>
+        <v>0.003330011877352128</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.481638</v>
+        <v>0.1963773333333333</v>
       </c>
       <c r="H25">
-        <v>1.444914</v>
+        <v>0.589132</v>
       </c>
       <c r="I25">
-        <v>0.03855846586560088</v>
+        <v>0.02544784489173709</v>
       </c>
       <c r="J25">
-        <v>0.04757300825393079</v>
+        <v>0.02667644010085692</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.1511595</v>
+        <v>12.1104985</v>
       </c>
       <c r="N25">
-        <v>16.302319</v>
+        <v>24.220997</v>
       </c>
       <c r="O25">
-        <v>0.1267029501450487</v>
+        <v>0.1924876941491673</v>
       </c>
       <c r="P25">
-        <v>0.08819342236226138</v>
+        <v>0.1371233128688515</v>
       </c>
       <c r="Q25">
-        <v>3.925908159261</v>
+        <v>2.378227400767333</v>
       </c>
       <c r="R25">
-        <v>23.555448955566</v>
+        <v>14.269364404604</v>
       </c>
       <c r="S25">
-        <v>0.00488547137823879</v>
+        <v>0.004898396984276137</v>
       </c>
       <c r="T25">
-        <v>0.004195626409982265</v>
+        <v>0.00365796184217698</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.481638</v>
+        <v>0.1963773333333333</v>
       </c>
       <c r="H26">
-        <v>1.444914</v>
+        <v>0.589132</v>
       </c>
       <c r="I26">
-        <v>0.03855846586560088</v>
+        <v>0.02544784489173709</v>
       </c>
       <c r="J26">
-        <v>0.04757300825393079</v>
+        <v>0.02667644010085692</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>7.620811666666666</v>
+        <v>4.671440333333334</v>
       </c>
       <c r="N26">
-        <v>22.862435</v>
+        <v>14.014321</v>
       </c>
       <c r="O26">
-        <v>0.1184591370916582</v>
+        <v>0.07424919611019735</v>
       </c>
       <c r="P26">
-        <v>0.123682795446755</v>
+        <v>0.079339843984437</v>
       </c>
       <c r="Q26">
-        <v>3.670472489509999</v>
+        <v>0.9173649954857778</v>
       </c>
       <c r="R26">
-        <v>33.03425240559</v>
+        <v>8.256284959372</v>
       </c>
       <c r="S26">
-        <v>0.004567602594017237</v>
+        <v>0.001889482025948471</v>
       </c>
       <c r="T26">
-        <v>0.005883962648657709</v>
+        <v>0.002116504595662166</v>
       </c>
     </row>
   </sheetData>
